--- a/xlsx/烏干達_intext.xlsx
+++ b/xlsx/烏干達_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="832">
   <si>
     <t>烏干達</t>
   </si>
@@ -23,13 +23,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_南非_烏干達</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E8%A5%BF%E9%87%8C%E8%AF%AD</t>
   </si>
   <si>
     <t>斯瓦西里语</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_烏干達</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
@@ -2853,7 +2859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2936,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -2965,7 +2971,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -3052,7 +3058,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -3081,7 +3087,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -3139,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3162,13 +3168,13 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -3197,7 +3203,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -3226,7 +3232,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -3255,7 +3261,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -3342,7 +3348,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -3371,7 +3377,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -3394,10 +3400,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3423,10 +3429,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3452,10 +3458,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3632,7 +3638,7 @@
         <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -3661,7 +3667,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -3748,7 +3754,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -3777,7 +3783,7 @@
         <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -3806,7 +3812,7 @@
         <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -3835,7 +3841,7 @@
         <v>62</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -3864,7 +3870,7 @@
         <v>64</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -3893,7 +3899,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -3922,7 +3928,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -4038,7 +4044,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -4067,7 +4073,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -4154,7 +4160,7 @@
         <v>84</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -4183,7 +4189,7 @@
         <v>86</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -4212,7 +4218,7 @@
         <v>88</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -4241,7 +4247,7 @@
         <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -4299,7 +4305,7 @@
         <v>94</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -4415,7 +4421,7 @@
         <v>102</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4444,7 +4450,7 @@
         <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -4502,7 +4508,7 @@
         <v>108</v>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -4531,7 +4537,7 @@
         <v>110</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -4705,7 +4711,7 @@
         <v>122</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -4734,7 +4740,7 @@
         <v>124</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -4763,7 +4769,7 @@
         <v>126</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -4879,7 +4885,7 @@
         <v>134</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -4908,7 +4914,7 @@
         <v>136</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -4966,7 +4972,7 @@
         <v>140</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -4995,7 +5001,7 @@
         <v>142</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -5024,7 +5030,7 @@
         <v>144</v>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -5053,7 +5059,7 @@
         <v>146</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -5082,7 +5088,7 @@
         <v>148</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -5105,13 +5111,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -5134,10 +5140,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -5169,7 +5175,7 @@
         <v>152</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -5198,7 +5204,7 @@
         <v>154</v>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -5227,7 +5233,7 @@
         <v>156</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -5256,7 +5262,7 @@
         <v>158</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -5285,7 +5291,7 @@
         <v>160</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -5343,7 +5349,7 @@
         <v>164</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -5372,7 +5378,7 @@
         <v>166</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -5401,7 +5407,7 @@
         <v>168</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -5430,7 +5436,7 @@
         <v>170</v>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -5459,7 +5465,7 @@
         <v>172</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -5488,7 +5494,7 @@
         <v>174</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -5720,7 +5726,7 @@
         <v>190</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -5749,7 +5755,7 @@
         <v>192</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -5836,7 +5842,7 @@
         <v>198</v>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -5865,7 +5871,7 @@
         <v>200</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -5952,7 +5958,7 @@
         <v>206</v>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -5981,7 +5987,7 @@
         <v>208</v>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -6010,7 +6016,7 @@
         <v>210</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -6039,7 +6045,7 @@
         <v>212</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -6097,7 +6103,7 @@
         <v>216</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -6126,7 +6132,7 @@
         <v>218</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -6155,7 +6161,7 @@
         <v>220</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -6184,7 +6190,7 @@
         <v>222</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -6271,7 +6277,7 @@
         <v>228</v>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -6300,7 +6306,7 @@
         <v>230</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -6329,7 +6335,7 @@
         <v>232</v>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -6358,7 +6364,7 @@
         <v>234</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -6764,7 +6770,7 @@
         <v>262</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6793,7 +6799,7 @@
         <v>264</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6851,7 +6857,7 @@
         <v>268</v>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6880,7 +6886,7 @@
         <v>270</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -7518,7 +7524,7 @@
         <v>314</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7541,13 +7547,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7570,13 +7576,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="G163" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7605,7 +7611,7 @@
         <v>318</v>
       </c>
       <c r="G164" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7634,7 +7640,7 @@
         <v>320</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7663,7 +7669,7 @@
         <v>322</v>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7721,7 +7727,7 @@
         <v>326</v>
       </c>
       <c r="G168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7750,7 +7756,7 @@
         <v>328</v>
       </c>
       <c r="G169" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7779,7 +7785,7 @@
         <v>330</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7808,7 +7814,7 @@
         <v>332</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7837,7 +7843,7 @@
         <v>334</v>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -7866,7 +7872,7 @@
         <v>336</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -7895,7 +7901,7 @@
         <v>338</v>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -8011,7 +8017,7 @@
         <v>346</v>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -8040,7 +8046,7 @@
         <v>348</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -8069,7 +8075,7 @@
         <v>350</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8098,7 +8104,7 @@
         <v>352</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -8185,7 +8191,7 @@
         <v>358</v>
       </c>
       <c r="G184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -8272,7 +8278,7 @@
         <v>364</v>
       </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8301,7 +8307,7 @@
         <v>366</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8330,7 +8336,7 @@
         <v>368</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -8359,7 +8365,7 @@
         <v>370</v>
       </c>
       <c r="G190" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8388,7 +8394,7 @@
         <v>372</v>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8417,7 +8423,7 @@
         <v>374</v>
       </c>
       <c r="G192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8475,7 +8481,7 @@
         <v>378</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -8504,7 +8510,7 @@
         <v>380</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8533,7 +8539,7 @@
         <v>382</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8562,7 +8568,7 @@
         <v>384</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8620,7 +8626,7 @@
         <v>388</v>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8678,7 +8684,7 @@
         <v>392</v>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -8707,7 +8713,7 @@
         <v>394</v>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8736,7 +8742,7 @@
         <v>396</v>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8765,7 +8771,7 @@
         <v>398</v>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8881,7 +8887,7 @@
         <v>406</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -8910,7 +8916,7 @@
         <v>408</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8968,7 +8974,7 @@
         <v>412</v>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8997,7 +9003,7 @@
         <v>414</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9049,10 +9055,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>84</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9078,13 +9084,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>85</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>86</v>
       </c>
       <c r="G215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9113,7 +9119,7 @@
         <v>420</v>
       </c>
       <c r="G216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -9136,13 +9142,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>92</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9165,13 +9171,13 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>93</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>94</v>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9200,7 +9206,7 @@
         <v>424</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9432,7 +9438,7 @@
         <v>440</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9461,7 +9467,7 @@
         <v>442</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -9838,7 +9844,7 @@
         <v>468</v>
       </c>
       <c r="G241" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -9867,7 +9873,7 @@
         <v>470</v>
       </c>
       <c r="G242" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -9896,7 +9902,7 @@
         <v>472</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -9925,7 +9931,7 @@
         <v>474</v>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9954,7 +9960,7 @@
         <v>476</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10128,7 +10134,7 @@
         <v>488</v>
       </c>
       <c r="G251" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10157,7 +10163,7 @@
         <v>490</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10360,7 +10366,7 @@
         <v>504</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10389,7 +10395,7 @@
         <v>506</v>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10418,7 +10424,7 @@
         <v>508</v>
       </c>
       <c r="G261" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10447,7 +10453,7 @@
         <v>510</v>
       </c>
       <c r="G262" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10476,7 +10482,7 @@
         <v>512</v>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10505,7 +10511,7 @@
         <v>514</v>
       </c>
       <c r="G264" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10534,7 +10540,7 @@
         <v>516</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10557,13 +10563,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="F266" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="G266" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10586,13 +10592,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10650,7 +10656,7 @@
         <v>522</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10679,7 +10685,7 @@
         <v>524</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -10708,7 +10714,7 @@
         <v>526</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10737,7 +10743,7 @@
         <v>528</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10766,7 +10772,7 @@
         <v>530</v>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10795,7 +10801,7 @@
         <v>532</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -10818,10 +10824,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="F275" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10847,13 +10853,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="G276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -10882,7 +10888,7 @@
         <v>536</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -10911,7 +10917,7 @@
         <v>538</v>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10998,7 +11004,7 @@
         <v>544</v>
       </c>
       <c r="G281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11027,7 +11033,7 @@
         <v>546</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11056,7 +11062,7 @@
         <v>548</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11079,10 +11085,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>385</v>
+        <v>549</v>
       </c>
       <c r="F284" t="s">
-        <v>386</v>
+        <v>550</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11108,13 +11114,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>387</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>388</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11143,7 +11149,7 @@
         <v>552</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11172,7 +11178,7 @@
         <v>554</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11259,7 +11265,7 @@
         <v>560</v>
       </c>
       <c r="G290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11288,7 +11294,7 @@
         <v>562</v>
       </c>
       <c r="G291" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11317,7 +11323,7 @@
         <v>564</v>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11346,7 +11352,7 @@
         <v>566</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11375,7 +11381,7 @@
         <v>568</v>
       </c>
       <c r="G294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11404,7 +11410,7 @@
         <v>570</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -11491,7 +11497,7 @@
         <v>576</v>
       </c>
       <c r="G298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11520,7 +11526,7 @@
         <v>578</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11578,7 +11584,7 @@
         <v>582</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11607,7 +11613,7 @@
         <v>584</v>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11636,7 +11642,7 @@
         <v>586</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11665,7 +11671,7 @@
         <v>588</v>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11694,7 +11700,7 @@
         <v>590</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11781,7 +11787,7 @@
         <v>596</v>
       </c>
       <c r="G308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11810,7 +11816,7 @@
         <v>598</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11833,13 +11839,13 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
       <c r="F310" t="s">
-        <v>508</v>
+        <v>600</v>
       </c>
       <c r="G310" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -11862,13 +11868,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="G311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -11897,7 +11903,7 @@
         <v>602</v>
       </c>
       <c r="G312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -11926,7 +11932,7 @@
         <v>604</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12767,7 +12773,7 @@
         <v>662</v>
       </c>
       <c r="G342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -12796,7 +12802,7 @@
         <v>664</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -12825,7 +12831,7 @@
         <v>666</v>
       </c>
       <c r="G344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -12877,13 +12883,13 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>345</v>
+        <v>669</v>
       </c>
       <c r="F346" t="s">
-        <v>346</v>
+        <v>670</v>
       </c>
       <c r="G346" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -12906,13 +12912,13 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>347</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>348</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13202,7 +13208,7 @@
         <v>690</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13231,7 +13237,7 @@
         <v>692</v>
       </c>
       <c r="G358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13434,7 +13440,7 @@
         <v>706</v>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -13463,7 +13469,7 @@
         <v>708</v>
       </c>
       <c r="G366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -13492,7 +13498,7 @@
         <v>710</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -13521,7 +13527,7 @@
         <v>712</v>
       </c>
       <c r="G368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -13550,7 +13556,7 @@
         <v>714</v>
       </c>
       <c r="G369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13579,7 +13585,7 @@
         <v>716</v>
       </c>
       <c r="G370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -13637,7 +13643,7 @@
         <v>720</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -13782,7 +13788,7 @@
         <v>730</v>
       </c>
       <c r="G377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -13811,7 +13817,7 @@
         <v>732</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -14095,10 +14101,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>375</v>
+        <v>751</v>
       </c>
       <c r="F388" t="s">
-        <v>376</v>
+        <v>752</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14124,10 +14130,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>751</v>
+        <v>377</v>
       </c>
       <c r="F389" t="s">
-        <v>752</v>
+        <v>378</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14182,13 +14188,13 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>377</v>
+        <v>755</v>
       </c>
       <c r="F391" t="s">
-        <v>378</v>
+        <v>756</v>
       </c>
       <c r="G391" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14211,13 +14217,13 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>755</v>
+        <v>379</v>
       </c>
       <c r="F392" t="s">
-        <v>756</v>
+        <v>380</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -14530,13 +14536,13 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>689</v>
+        <v>777</v>
       </c>
       <c r="F403" t="s">
-        <v>690</v>
+        <v>778</v>
       </c>
       <c r="G403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -14559,13 +14565,13 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>777</v>
+        <v>691</v>
       </c>
       <c r="F404" t="s">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="G404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -14646,10 +14652,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>581</v>
+        <v>783</v>
       </c>
       <c r="F407" t="s">
-        <v>582</v>
+        <v>784</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14675,10 +14681,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>583</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>584</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14704,10 +14710,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>709</v>
+        <v>785</v>
       </c>
       <c r="F409" t="s">
-        <v>710</v>
+        <v>786</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14733,10 +14739,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>785</v>
+        <v>711</v>
       </c>
       <c r="F410" t="s">
-        <v>786</v>
+        <v>712</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14762,10 +14768,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="F411" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14791,10 +14797,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>787</v>
+        <v>707</v>
       </c>
       <c r="F412" t="s">
-        <v>788</v>
+        <v>708</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15168,10 +15174,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="F425" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15197,10 +15203,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="F426" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15226,13 +15232,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>659</v>
+        <v>733</v>
       </c>
       <c r="F427" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="G427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15255,13 +15261,13 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>813</v>
+        <v>661</v>
       </c>
       <c r="F428" t="s">
-        <v>814</v>
+        <v>662</v>
       </c>
       <c r="G428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -15290,7 +15296,7 @@
         <v>816</v>
       </c>
       <c r="G429" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -15464,7 +15470,7 @@
         <v>828</v>
       </c>
       <c r="G435" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -15487,18 +15493,47 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F436" t="s">
+        <v>830</v>
+      </c>
+      <c r="G436" t="n">
+        <v>12</v>
+      </c>
+      <c r="H436" t="s">
+        <v>4</v>
+      </c>
+      <c r="I436" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1</v>
+      </c>
+      <c r="D437" t="n">
+        <v>436</v>
+      </c>
+      <c r="E437" t="s">
         <v>829</v>
       </c>
-      <c r="G436" t="n">
-        <v>1</v>
-      </c>
-      <c r="H436" t="s">
-        <v>4</v>
-      </c>
-      <c r="I436" t="n">
+      <c r="F437" t="s">
+        <v>831</v>
+      </c>
+      <c r="G437" t="n">
+        <v>1</v>
+      </c>
+      <c r="H437" t="s">
+        <v>4</v>
+      </c>
+      <c r="I437" t="n">
         <v>3</v>
       </c>
     </row>
